--- a/ferrer_carles/Tasca3.xlsx
+++ b/ferrer_carles/Tasca3.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">Sexe</t>
   </si>
   <si>
-    <t xml:space="preserve">Cognoms,_i_Nom</t>
+    <t xml:space="preserve">Cognoms_i_Nom</t>
   </si>
   <si>
     <t xml:space="preserve">Data_Naixement</t>
@@ -1424,10 +1424,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.14"/>
@@ -4549,7 +4549,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
@@ -5737,7 +5737,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="9.71"/>
